--- a/Figures/Table_1_v2.xlsx
+++ b/Figures/Table_1_v2.xlsx
@@ -15,7 +15,289 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>NaN-NaN</t>
+  </si>
+  <si>
+    <t>102-358</t>
+  </si>
+  <si>
+    <t>13-205</t>
+  </si>
+  <si>
+    <t>77-273</t>
+  </si>
+  <si>
+    <t>61-356</t>
+  </si>
+  <si>
+    <t>140-431</t>
+  </si>
+  <si>
+    <t>112-440</t>
+  </si>
+  <si>
+    <t>81-169</t>
+  </si>
+  <si>
+    <t>102-365</t>
+  </si>
+  <si>
+    <t>169-504</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>63-98</t>
+  </si>
+  <si>
+    <t>94-312</t>
+  </si>
+  <si>
+    <t>72-1231</t>
+  </si>
+  <si>
+    <t>54-120</t>
+  </si>
+  <si>
+    <t>68-220</t>
+  </si>
+  <si>
+    <t>110-281</t>
+  </si>
+  <si>
+    <t>112-206</t>
+  </si>
+  <si>
+    <t>24-153</t>
+  </si>
+  <si>
+    <t>89-270</t>
+  </si>
+  <si>
+    <t>120-297</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>996-3644</t>
+  </si>
+  <si>
+    <t>1167-2497</t>
+  </si>
+  <si>
+    <t>1047-2671</t>
+  </si>
+  <si>
+    <t>1580-1812</t>
+  </si>
+  <si>
+    <t>1487-1775</t>
+  </si>
+  <si>
+    <t>1147-4458</t>
+  </si>
+  <si>
+    <t>1468-3067</t>
+  </si>
+  <si>
+    <t>1100-4550</t>
+  </si>
+  <si>
+    <t>705-3018</t>
+  </si>
+  <si>
+    <t>1265-3301</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>157-831</t>
+  </si>
+  <si>
+    <t>133-1087</t>
+  </si>
+  <si>
+    <t>113-722</t>
+  </si>
+  <si>
+    <t>60-806</t>
+  </si>
+  <si>
+    <t>114-467</t>
+  </si>
+  <si>
+    <t>130-710</t>
+  </si>
+  <si>
+    <t>234-934</t>
+  </si>
+  <si>
+    <t>165-890</t>
+  </si>
+  <si>
+    <t>113-551</t>
+  </si>
+  <si>
+    <t>196-734</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>92-520</t>
+  </si>
+  <si>
+    <t>125-436</t>
+  </si>
+  <si>
+    <t>72-635</t>
+  </si>
+  <si>
+    <t>76-443</t>
+  </si>
+  <si>
+    <t>76-403</t>
+  </si>
+  <si>
+    <t>67-520</t>
+  </si>
+  <si>
+    <t>115-702</t>
+  </si>
+  <si>
+    <t>85-604</t>
+  </si>
+  <si>
+    <t>127-306</t>
+  </si>
+  <si>
+    <t>118-567</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>22-121</t>
+  </si>
+  <si>
+    <t>30-189</t>
+  </si>
+  <si>
+    <t>25-314</t>
+  </si>
+  <si>
+    <t>33-431</t>
+  </si>
+  <si>
+    <t>23-349</t>
+  </si>
+  <si>
+    <t>23-290</t>
+  </si>
+  <si>
+    <t>23-385</t>
+  </si>
+  <si>
+    <t>12-312</t>
+  </si>
+  <si>
+    <t>31-158</t>
+  </si>
+  <si>
+    <t>29-333</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
   <si>
     <t>1898-1907</t>
   </si>
@@ -356,30 +638,30 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
@@ -400,7 +682,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B4" s="0">
         <v>179</v>
@@ -423,7 +705,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B5" s="0">
         <v>114</v>
@@ -446,7 +728,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B6" s="0">
         <v>150</v>
@@ -469,7 +751,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="B7" s="0">
         <v>152</v>
@@ -492,7 +774,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="B8" s="0">
         <v>233</v>
@@ -515,7 +797,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="B9" s="0">
         <v>204</v>
@@ -538,7 +820,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="B10" s="0">
         <v>131</v>
@@ -561,7 +843,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B11" s="0">
         <v>213</v>
@@ -584,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="B12" s="0">
         <v>263</v>
@@ -625,255 +907,255 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Table_1_v2.xlsx
+++ b/Figures/Table_1_v2.xlsx
@@ -15,7 +15,289 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>NaN-NaN</t>
+  </si>
+  <si>
+    <t>102-358</t>
+  </si>
+  <si>
+    <t>13-205</t>
+  </si>
+  <si>
+    <t>77-273</t>
+  </si>
+  <si>
+    <t>61-356</t>
+  </si>
+  <si>
+    <t>140-431</t>
+  </si>
+  <si>
+    <t>112-440</t>
+  </si>
+  <si>
+    <t>81-169</t>
+  </si>
+  <si>
+    <t>102-365</t>
+  </si>
+  <si>
+    <t>169-504</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>63-98</t>
+  </si>
+  <si>
+    <t>94-312</t>
+  </si>
+  <si>
+    <t>72-1231</t>
+  </si>
+  <si>
+    <t>54-120</t>
+  </si>
+  <si>
+    <t>68-220</t>
+  </si>
+  <si>
+    <t>110-281</t>
+  </si>
+  <si>
+    <t>112-206</t>
+  </si>
+  <si>
+    <t>24-153</t>
+  </si>
+  <si>
+    <t>89-270</t>
+  </si>
+  <si>
+    <t>120-297</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>996-3644</t>
+  </si>
+  <si>
+    <t>1167-2497</t>
+  </si>
+  <si>
+    <t>1047-2671</t>
+  </si>
+  <si>
+    <t>1580-1812</t>
+  </si>
+  <si>
+    <t>1487-1775</t>
+  </si>
+  <si>
+    <t>1147-4458</t>
+  </si>
+  <si>
+    <t>1468-3067</t>
+  </si>
+  <si>
+    <t>1100-4550</t>
+  </si>
+  <si>
+    <t>705-3018</t>
+  </si>
+  <si>
+    <t>1265-3301</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>157-831</t>
+  </si>
+  <si>
+    <t>133-1087</t>
+  </si>
+  <si>
+    <t>113-722</t>
+  </si>
+  <si>
+    <t>60-806</t>
+  </si>
+  <si>
+    <t>114-467</t>
+  </si>
+  <si>
+    <t>130-710</t>
+  </si>
+  <si>
+    <t>234-934</t>
+  </si>
+  <si>
+    <t>165-890</t>
+  </si>
+  <si>
+    <t>113-551</t>
+  </si>
+  <si>
+    <t>196-734</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>92-520</t>
+  </si>
+  <si>
+    <t>125-436</t>
+  </si>
+  <si>
+    <t>72-635</t>
+  </si>
+  <si>
+    <t>76-443</t>
+  </si>
+  <si>
+    <t>76-403</t>
+  </si>
+  <si>
+    <t>67-520</t>
+  </si>
+  <si>
+    <t>115-702</t>
+  </si>
+  <si>
+    <t>85-604</t>
+  </si>
+  <si>
+    <t>127-306</t>
+  </si>
+  <si>
+    <t>118-567</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>22-121</t>
+  </si>
+  <si>
+    <t>30-189</t>
+  </si>
+  <si>
+    <t>25-314</t>
+  </si>
+  <si>
+    <t>33-431</t>
+  </si>
+  <si>
+    <t>23-349</t>
+  </si>
+  <si>
+    <t>23-290</t>
+  </si>
+  <si>
+    <t>23-385</t>
+  </si>
+  <si>
+    <t>12-312</t>
+  </si>
+  <si>
+    <t>31-158</t>
+  </si>
+  <si>
+    <t>29-333</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
   <si>
     <t>1898-1907</t>
   </si>
@@ -638,30 +920,30 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
@@ -682,7 +964,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="B4" s="0">
         <v>179</v>
@@ -705,7 +987,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="B5" s="0">
         <v>114</v>
@@ -728,7 +1010,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="B6" s="0">
         <v>150</v>
@@ -751,7 +1033,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="B7" s="0">
         <v>152</v>
@@ -774,7 +1056,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="B8" s="0">
         <v>233</v>
@@ -797,7 +1079,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="B9" s="0">
         <v>204</v>
@@ -820,7 +1102,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="B10" s="0">
         <v>131</v>
@@ -843,7 +1125,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="B11" s="0">
         <v>213</v>
@@ -866,7 +1148,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="B12" s="0">
         <v>263</v>
@@ -907,255 +1189,255 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>167</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>148</v>
+        <v>242</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>160</v>
+        <v>254</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>175</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
